--- a/pjjurados/uploads/archivosrtf/1_partes.xlsx
+++ b/pjjurados/uploads/archivosrtf/1_partes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>NroOrden</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>SUSANA SILVIA</t>
   </si>
 </sst>
 </file>
@@ -399,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,26 +438,6 @@
         <v>17066215</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>13863979</v>
-      </c>
-      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
